--- a/database/PRJ-004/secondary/output/pdf_download_status.xlsx
+++ b/database/PRJ-004/secondary/output/pdf_download_status.xlsx
@@ -636,7 +636,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Downloaded</t>
+          <t>Not-Downloaded</t>
         </is>
       </c>
     </row>
